--- a/T4.xlsx
+++ b/T4.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Desktop\Project Results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Desktop\singhalpriyank\ProjectF13\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -232,11 +232,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>People ready to give up</a:t>
+              <a:t>Users ready to give up</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> services for better privacy</a:t>
+              <a:t> certain services for better privacy</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>

--- a/T4.xlsx
+++ b/T4.xlsx
@@ -401,7 +401,7 @@
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
+            <c:showVal val="1"/>
             <c:showCatName val="1"/>
             <c:showSerName val="0"/>
             <c:showPercent val="1"/>
